--- a/data/trans_orig/IP2003-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2003-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0439383A-3AD2-428E-B4BF-C9EC3A336092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1EFCC7E-107D-4969-9F7B-F2D405FF7407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3670DC57-77BE-4B14-9134-7B4CBBF2A810}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EF09450B-557B-4C91-9FD1-42D1CF7FAAF9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,63 +248,6 @@
     <t>32,07%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
     <t>85,76%</t>
   </si>
   <si>
@@ -341,6 +341,54 @@
     <t>2,04%</t>
   </si>
   <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
     <t>75,87%</t>
   </si>
   <si>
@@ -395,54 +443,6 @@
     <t>30,35%</t>
   </si>
   <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
     <t>86,81%</t>
   </si>
   <si>
@@ -536,6 +536,60 @@
     <t>1,35%</t>
   </si>
   <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
     <t>76,69%</t>
   </si>
   <si>
@@ -590,60 +644,6 @@
     <t>26,85%</t>
   </si>
   <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
     <t>87,03%</t>
   </si>
   <si>
@@ -749,6 +749,60 @@
     <t>4,37%</t>
   </si>
   <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
     <t>81,43%</t>
   </si>
   <si>
@@ -795,60 +849,6 @@
   </si>
   <si>
     <t>23,48%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
   </si>
   <si>
     <t>86,71%</t>
@@ -1288,7 +1288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE9B3D6-BC7F-46A6-ACA6-A386D6711D00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD6C2BA-B67B-401D-86D5-F96264915E04}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1561,10 +1561,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="D7" s="7">
-        <v>209445</v>
+        <v>192980</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1579,7 +1579,7 @@
         <v>265</v>
       </c>
       <c r="I7" s="7">
-        <v>179242</v>
+        <v>178993</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1591,10 +1591,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>580</v>
+        <v>558</v>
       </c>
       <c r="N7" s="7">
-        <v>388687</v>
+        <v>371972</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1612,10 +1612,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="D8" s="7">
-        <v>71240</v>
+        <v>24336</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1627,10 +1627,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="I8" s="7">
-        <v>86361</v>
+        <v>25653</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1642,10 +1642,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>235</v>
+        <v>74</v>
       </c>
       <c r="N8" s="7">
-        <v>157601</v>
+        <v>49989</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1663,10 +1663,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>421</v>
+        <v>329</v>
       </c>
       <c r="D9" s="7">
-        <v>280685</v>
+        <v>217316</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1678,10 +1678,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>303</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>204646</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1693,10 +1693,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>815</v>
+        <v>632</v>
       </c>
       <c r="N9" s="7">
-        <v>546288</v>
+        <v>421961</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1716,10 +1716,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="D10" s="7">
-        <v>192980</v>
+        <v>209445</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1734,7 +1734,7 @@
         <v>265</v>
       </c>
       <c r="I10" s="7">
-        <v>178993</v>
+        <v>179242</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1746,10 +1746,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>558</v>
+        <v>580</v>
       </c>
       <c r="N10" s="7">
-        <v>371972</v>
+        <v>388687</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1767,10 +1767,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="D11" s="7">
-        <v>24336</v>
+        <v>71240</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1782,10 +1782,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="I11" s="7">
-        <v>25653</v>
+        <v>86361</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1797,10 +1797,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="N11" s="7">
-        <v>49989</v>
+        <v>157601</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1818,10 +1818,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>329</v>
+        <v>421</v>
       </c>
       <c r="D12" s="7">
-        <v>217316</v>
+        <v>280685</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1833,10 +1833,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>303</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>204646</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1848,10 +1848,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>632</v>
+        <v>815</v>
       </c>
       <c r="N12" s="7">
-        <v>421961</v>
+        <v>546288</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2034,7 +2034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB93944B-BADF-44A9-BBF9-A0697F4C83C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D1D332-AD1E-45A7-B8CC-F75FFF24BED5}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2307,49 +2307,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D7" s="7">
-        <v>206636</v>
+        <v>215557</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>100</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>276</v>
+      </c>
+      <c r="I7" s="7">
+        <v>197457</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="7">
-        <v>253</v>
-      </c>
-      <c r="I7" s="7">
-        <v>178240</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>574</v>
+      </c>
+      <c r="N7" s="7">
+        <v>413014</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M7" s="7">
-        <v>556</v>
-      </c>
-      <c r="N7" s="7">
-        <v>384876</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,49 +2358,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="D8" s="7">
-        <v>65716</v>
+        <v>26434</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7">
+        <v>45</v>
+      </c>
+      <c r="I8" s="7">
+        <v>32015</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="7">
-        <v>111</v>
-      </c>
-      <c r="I8" s="7">
-        <v>77562</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>82</v>
+      </c>
+      <c r="N8" s="7">
+        <v>58449</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="M8" s="7">
-        <v>209</v>
-      </c>
-      <c r="N8" s="7">
-        <v>143278</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2409,10 +2409,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>401</v>
+        <v>335</v>
       </c>
       <c r="D9" s="7">
-        <v>272352</v>
+        <v>241991</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2424,10 +2424,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>255802</v>
+        <v>229472</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2439,10 +2439,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>765</v>
+        <v>656</v>
       </c>
       <c r="N9" s="7">
-        <v>528154</v>
+        <v>471463</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2462,49 +2462,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D10" s="7">
-        <v>215557</v>
+        <v>206636</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>253</v>
+      </c>
+      <c r="I10" s="7">
+        <v>178240</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H10" s="7">
-        <v>276</v>
-      </c>
-      <c r="I10" s="7">
-        <v>197457</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>556</v>
+      </c>
+      <c r="N10" s="7">
+        <v>384876</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M10" s="7">
-        <v>574</v>
-      </c>
-      <c r="N10" s="7">
-        <v>413014</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2513,25 +2513,25 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="D11" s="7">
-        <v>26434</v>
+        <v>65716</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H11" s="7">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="I11" s="7">
-        <v>32015</v>
+        <v>77562</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>128</v>
@@ -2543,10 +2543,10 @@
         <v>130</v>
       </c>
       <c r="M11" s="7">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="N11" s="7">
-        <v>58449</v>
+        <v>143278</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>131</v>
@@ -2564,10 +2564,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>335</v>
+        <v>401</v>
       </c>
       <c r="D12" s="7">
-        <v>241991</v>
+        <v>272352</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2579,10 +2579,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="I12" s="7">
-        <v>229472</v>
+        <v>255802</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2594,10 +2594,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>656</v>
+        <v>765</v>
       </c>
       <c r="N12" s="7">
-        <v>471463</v>
+        <v>528154</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2780,7 +2780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95160F63-7C25-4B66-9EA8-1E121B4BDB1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8937FE9A-2B42-4224-82EA-6F47C1CF6E43}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3053,10 +3053,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="D7" s="7">
-        <v>215971</v>
+        <v>225454</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>165</v>
@@ -3068,10 +3068,10 @@
         <v>167</v>
       </c>
       <c r="H7" s="7">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="I7" s="7">
-        <v>201947</v>
+        <v>210738</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>168</v>
@@ -3083,10 +3083,10 @@
         <v>170</v>
       </c>
       <c r="M7" s="7">
-        <v>571</v>
+        <v>653</v>
       </c>
       <c r="N7" s="7">
-        <v>417919</v>
+        <v>436193</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>171</v>
@@ -3104,10 +3104,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="D8" s="7">
-        <v>65658</v>
+        <v>24598</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>174</v>
@@ -3119,10 +3119,10 @@
         <v>176</v>
       </c>
       <c r="H8" s="7">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="I8" s="7">
-        <v>64495</v>
+        <v>23901</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>177</v>
@@ -3134,10 +3134,10 @@
         <v>179</v>
       </c>
       <c r="M8" s="7">
-        <v>183</v>
+        <v>69</v>
       </c>
       <c r="N8" s="7">
-        <v>130152</v>
+        <v>48498</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>180</v>
@@ -3155,10 +3155,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3170,10 +3170,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="I9" s="7">
-        <v>266442</v>
+        <v>234639</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3185,10 +3185,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>754</v>
+        <v>722</v>
       </c>
       <c r="N9" s="7">
-        <v>548071</v>
+        <v>484691</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3208,10 +3208,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="D10" s="7">
-        <v>225454</v>
+        <v>215971</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>183</v>
@@ -3223,10 +3223,10 @@
         <v>185</v>
       </c>
       <c r="H10" s="7">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="I10" s="7">
-        <v>210738</v>
+        <v>201947</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>186</v>
@@ -3238,10 +3238,10 @@
         <v>188</v>
       </c>
       <c r="M10" s="7">
-        <v>653</v>
+        <v>571</v>
       </c>
       <c r="N10" s="7">
-        <v>436193</v>
+        <v>417919</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>189</v>
@@ -3259,10 +3259,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="D11" s="7">
-        <v>24598</v>
+        <v>65658</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>192</v>
@@ -3274,10 +3274,10 @@
         <v>194</v>
       </c>
       <c r="H11" s="7">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="I11" s="7">
-        <v>23901</v>
+        <v>64495</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>195</v>
@@ -3289,10 +3289,10 @@
         <v>197</v>
       </c>
       <c r="M11" s="7">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="N11" s="7">
-        <v>48498</v>
+        <v>130152</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>198</v>
@@ -3310,10 +3310,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3325,10 +3325,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="I12" s="7">
-        <v>234639</v>
+        <v>266442</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3340,10 +3340,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>722</v>
+        <v>754</v>
       </c>
       <c r="N12" s="7">
-        <v>484691</v>
+        <v>548071</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3526,7 +3526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B62C2D-CCFD-4B1F-8C9A-220E1CA135C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2777E0C-979B-4C6B-8F71-85991A2A613C}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3799,10 +3799,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>397</v>
+        <v>247</v>
       </c>
       <c r="D7" s="7">
-        <v>327915</v>
+        <v>187254</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>236</v>
@@ -3814,10 +3814,10 @@
         <v>238</v>
       </c>
       <c r="H7" s="7">
-        <v>377</v>
+        <v>249</v>
       </c>
       <c r="I7" s="7">
-        <v>282767</v>
+        <v>173619</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>239</v>
@@ -3826,22 +3826,22 @@
         <v>240</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>74</v>
+        <v>241</v>
       </c>
       <c r="M7" s="7">
-        <v>774</v>
+        <v>496</v>
       </c>
       <c r="N7" s="7">
-        <v>610682</v>
+        <v>360872</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,49 +3850,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7">
-        <v>74795</v>
+        <v>16832</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H8" s="7">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="I8" s="7">
-        <v>68041</v>
+        <v>24648</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>82</v>
+        <v>249</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M8" s="7">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="N8" s="7">
-        <v>142837</v>
+        <v>41481</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,10 +3901,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>479</v>
+        <v>269</v>
       </c>
       <c r="D9" s="7">
-        <v>402710</v>
+        <v>204086</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3916,10 +3916,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>462</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>350808</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3931,10 +3931,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>941</v>
+        <v>550</v>
       </c>
       <c r="N9" s="7">
-        <v>753519</v>
+        <v>402353</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3954,49 +3954,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>247</v>
+        <v>397</v>
       </c>
       <c r="D10" s="7">
-        <v>187254</v>
+        <v>327915</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H10" s="7">
-        <v>249</v>
+        <v>377</v>
       </c>
       <c r="I10" s="7">
-        <v>173619</v>
+        <v>282767</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="M10" s="7">
-        <v>496</v>
+        <v>774</v>
       </c>
       <c r="N10" s="7">
-        <v>360872</v>
+        <v>610682</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,40 +4005,40 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="D11" s="7">
-        <v>16832</v>
+        <v>74795</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H11" s="7">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="I11" s="7">
-        <v>24648</v>
+        <v>68041</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>82</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>266</v>
       </c>
       <c r="M11" s="7">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="N11" s="7">
-        <v>41481</v>
+        <v>142837</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>267</v>
@@ -4056,10 +4056,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>269</v>
+        <v>479</v>
       </c>
       <c r="D12" s="7">
-        <v>204086</v>
+        <v>402710</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4071,10 +4071,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>462</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>350808</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4086,10 +4086,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>550</v>
+        <v>941</v>
       </c>
       <c r="N12" s="7">
-        <v>402353</v>
+        <v>753519</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP2003-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2003-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1EFCC7E-107D-4969-9F7B-F2D405FF7407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C46345B2-F72C-49B6-9E0E-99E2F1657489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EF09450B-557B-4C91-9FD1-42D1CF7FAAF9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2258F08D-98D4-46B8-8707-A9FD144DAA8D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="329">
   <si>
     <t>Menores según si tienen dientes o muelas empastados en 2007 (Tasa respuesta: 94,72%)</t>
   </si>
@@ -68,835 +68,964 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>98,51%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10/15</t>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si tienen dientes o muelas empastados en 2012 (Tasa respuesta: 93,28%)</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>Menores según si tienen dientes o muelas empastados en 2015 (Tasa respuesta: 93,51%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
   </si>
   <si>
     <t>74,62%</t>
   </si>
   <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen dientes o muelas empastados en 2012 (Tasa respuesta: 93,28%)</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen dientes o muelas empastados en 2015 (Tasa respuesta: 93,51%)</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
   </si>
   <si>
     <t>87,03%</t>
   </si>
   <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
   </si>
   <si>
     <t>86,49%</t>
   </si>
   <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
   </si>
   <si>
     <t>Menores según si tienen dientes o muelas empastados en 2023 (Tasa respuesta: 97,24%)</t>
   </si>
   <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
   </si>
   <si>
     <t>86,71%</t>
   </si>
   <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
   </si>
   <si>
     <t>85,42%</t>
   </si>
   <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
   </si>
   <si>
     <t>86,1%</t>
   </si>
   <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
   </si>
 </sst>
 </file>
@@ -907,7 +1036,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1003,39 +1132,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1087,7 +1216,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1198,13 +1327,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1213,6 +1335,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1277,19 +1406,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD6C2BA-B67B-401D-86D5-F96264915E04}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01DB5C2-12B3-442E-BB3C-88C08F53DC4E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1406,10 +1555,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>184931</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1421,85 +1570,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>173500</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>541</v>
-      </c>
-      <c r="N4" s="7">
-        <v>358430</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>128</v>
+      </c>
+      <c r="D5" s="7">
+        <v>85108</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>108</v>
+      </c>
+      <c r="I5" s="7">
+        <v>70767</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1958</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>236</v>
+      </c>
+      <c r="N5" s="7">
+        <v>155875</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1292</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>5</v>
-      </c>
-      <c r="N5" s="7">
-        <v>3250</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1508,153 +1657,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>280</v>
+        <v>128</v>
       </c>
       <c r="D6" s="7">
-        <v>186889</v>
+        <v>85108</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>266</v>
+        <v>108</v>
       </c>
       <c r="I6" s="7">
-        <v>174792</v>
+        <v>70767</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>546</v>
+        <v>236</v>
       </c>
       <c r="N6" s="7">
-        <v>361680</v>
+        <v>155875</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>293</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>192980</v>
+        <v>10735</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="7">
+        <v>17</v>
+      </c>
+      <c r="I7" s="7">
+        <v>11288</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="7">
         <v>33</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="7">
-        <v>265</v>
-      </c>
-      <c r="I7" s="7">
-        <v>178993</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="7">
-        <v>558</v>
-      </c>
       <c r="N7" s="7">
-        <v>371972</v>
+        <v>22023</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>365</v>
+      </c>
+      <c r="D8" s="7">
+        <v>242296</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="7">
+        <v>361</v>
+      </c>
+      <c r="I8" s="7">
+        <v>241341</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="7">
-        <v>24336</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="L8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="7">
+        <v>726</v>
+      </c>
+      <c r="N8" s="7">
+        <v>483637</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="7">
-        <v>25653</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="7">
-        <v>74</v>
-      </c>
-      <c r="N8" s="7">
-        <v>49989</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1663,153 +1812,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>329</v>
+        <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>217316</v>
+        <v>253031</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>303</v>
+        <v>378</v>
       </c>
       <c r="I9" s="7">
-        <v>204646</v>
+        <v>252629</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>632</v>
+        <v>759</v>
       </c>
       <c r="N9" s="7">
-        <v>421961</v>
+        <v>505660</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>209445</v>
+        <v>30533</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="7">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>265</v>
-      </c>
       <c r="I10" s="7">
-        <v>179242</v>
+        <v>35135</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M10" s="7">
-        <v>580</v>
+        <v>98</v>
       </c>
       <c r="N10" s="7">
-        <v>388687</v>
+        <v>65668</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="D11" s="7">
-        <v>71240</v>
+        <v>110169</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H11" s="7">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="I11" s="7">
-        <v>86361</v>
+        <v>92413</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M11" s="7">
-        <v>235</v>
+        <v>304</v>
       </c>
       <c r="N11" s="7">
-        <v>157601</v>
+        <v>202582</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1818,153 +1967,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>421</v>
+        <v>211</v>
       </c>
       <c r="D12" s="7">
-        <v>280685</v>
+        <v>140702</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>815</v>
+        <v>402</v>
       </c>
       <c r="N12" s="7">
-        <v>546288</v>
+        <v>268250</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>885</v>
+        <v>84</v>
       </c>
       <c r="D13" s="7">
-        <v>587355</v>
+        <v>56267</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="7">
+        <v>99</v>
+      </c>
+      <c r="I13" s="7">
+        <v>66882</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="7">
+        <v>183</v>
+      </c>
+      <c r="N13" s="7">
+        <v>123149</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="7">
-        <v>794</v>
-      </c>
-      <c r="I13" s="7">
-        <v>531735</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1679</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1119090</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="D14" s="7">
-        <v>97535</v>
+        <v>149782</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="7">
+        <v>187</v>
+      </c>
+      <c r="I14" s="7">
+        <v>127215</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="7">
+        <v>413</v>
+      </c>
+      <c r="N14" s="7">
+        <v>276997</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="7">
-        <v>169</v>
-      </c>
-      <c r="I14" s="7">
-        <v>113305</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" s="7">
-        <v>314</v>
-      </c>
-      <c r="N14" s="7">
-        <v>210840</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,55 +2122,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>145</v>
+      </c>
+      <c r="D16" s="7">
+        <v>97535</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="7">
+        <v>169</v>
+      </c>
+      <c r="I16" s="7">
+        <v>113305</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="7">
+        <v>314</v>
+      </c>
+      <c r="N16" s="7">
+        <v>210840</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>885</v>
+      </c>
+      <c r="D17" s="7">
+        <v>587355</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="7">
+        <v>794</v>
+      </c>
+      <c r="I17" s="7">
+        <v>531735</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1679</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1119090</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1030</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>684890</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>963</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>645040</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1993</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1329930</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2034,8 +2344,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D1D332-AD1E-45A7-B8CC-F75FFF24BED5}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE91A589-F3BA-44C9-8A7D-501284DCB692}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2051,7 +2361,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2152,100 +2462,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>188450</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>175963</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="M4" s="7">
-        <v>534</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>364414</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="D5" s="7">
-        <v>647</v>
+        <v>95923</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>149</v>
       </c>
       <c r="I5" s="7">
-        <v>1654</v>
+        <v>98870</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>286</v>
       </c>
       <c r="N5" s="7">
-        <v>2300</v>
+        <v>194793</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2254,153 +2564,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>268</v>
+        <v>137</v>
       </c>
       <c r="D6" s="7">
-        <v>189097</v>
+        <v>95923</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>269</v>
+        <v>149</v>
       </c>
       <c r="I6" s="7">
-        <v>177617</v>
+        <v>98870</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>537</v>
+        <v>286</v>
       </c>
       <c r="N6" s="7">
-        <v>366714</v>
+        <v>194793</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>298</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>215557</v>
+        <v>14840</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
-        <v>276</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>197457</v>
+        <v>10823</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
-        <v>574</v>
+        <v>35</v>
       </c>
       <c r="N7" s="7">
-        <v>413014</v>
+        <v>25663</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>37</v>
+        <v>354</v>
       </c>
       <c r="D8" s="7">
-        <v>26434</v>
+        <v>254151</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="I8" s="7">
-        <v>32015</v>
+        <v>225427</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
-        <v>82</v>
+        <v>679</v>
       </c>
       <c r="N8" s="7">
-        <v>58449</v>
+        <v>479578</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2409,153 +2719,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="D9" s="7">
-        <v>241991</v>
+        <v>268991</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="I9" s="7">
-        <v>229472</v>
+        <v>236250</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>656</v>
+        <v>714</v>
       </c>
       <c r="N9" s="7">
-        <v>471463</v>
+        <v>505241</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>303</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7">
-        <v>206636</v>
+        <v>31754</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
-        <v>253</v>
+        <v>63</v>
       </c>
       <c r="I10" s="7">
-        <v>178240</v>
+        <v>43766</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
-        <v>556</v>
+        <v>110</v>
       </c>
       <c r="N10" s="7">
-        <v>384876</v>
+        <v>75519</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="D11" s="7">
-        <v>65716</v>
+        <v>126817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="I11" s="7">
-        <v>77562</v>
+        <v>113277</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
-        <v>209</v>
+        <v>341</v>
       </c>
       <c r="N11" s="7">
-        <v>143278</v>
+        <v>240095</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2564,153 +2874,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>401</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>272352</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>364</v>
+        <v>223</v>
       </c>
       <c r="I12" s="7">
-        <v>255802</v>
+        <v>157043</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>765</v>
+        <v>451</v>
       </c>
       <c r="N12" s="7">
-        <v>528154</v>
+        <v>315614</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>868</v>
+        <v>69</v>
       </c>
       <c r="D13" s="7">
-        <v>610643</v>
+        <v>46203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
-        <v>796</v>
+        <v>80</v>
       </c>
       <c r="I13" s="7">
-        <v>551660</v>
+        <v>56642</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
-        <v>1664</v>
+        <v>149</v>
       </c>
       <c r="N13" s="7">
-        <v>1162303</v>
+        <v>102846</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>141</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="D14" s="7">
-        <v>92797</v>
+        <v>133752</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I14" s="7">
-        <v>111231</v>
+        <v>114086</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="M14" s="7">
-        <v>294</v>
+        <v>358</v>
       </c>
       <c r="N14" s="7">
-        <v>204028</v>
+        <v>247837</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2719,55 +3029,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>265</v>
+      </c>
+      <c r="D15" s="7">
+        <v>179955</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>242</v>
+      </c>
+      <c r="I15" s="7">
+        <v>170728</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>507</v>
+      </c>
+      <c r="N15" s="7">
+        <v>350683</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>136</v>
+      </c>
+      <c r="D16" s="7">
+        <v>92797</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="7">
+        <v>158</v>
+      </c>
+      <c r="I16" s="7">
+        <v>111231</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" s="7">
+        <v>294</v>
+      </c>
+      <c r="N16" s="7">
+        <v>204028</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>868</v>
+      </c>
+      <c r="D17" s="7">
+        <v>610643</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="7">
+        <v>796</v>
+      </c>
+      <c r="I17" s="7">
+        <v>551660</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1664</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1162303</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1004</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>703440</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>954</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>662891</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1958</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1366331</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2780,8 +3251,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8937FE9A-2B42-4224-82EA-6F47C1CF6E43}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AFAF40-EF0A-446E-9D83-6AB4ACC36667}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2797,7 +3268,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2898,100 +3369,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>168568</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>156913</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>325482</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="D5" s="7">
-        <v>646</v>
+        <v>80214</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="I5" s="7">
-        <v>560</v>
+        <v>87859</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>263</v>
       </c>
       <c r="N5" s="7">
-        <v>1205</v>
+        <v>168074</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,153 +3471,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>256</v>
+        <v>122</v>
       </c>
       <c r="D6" s="7">
-        <v>169214</v>
+        <v>80214</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>256</v>
+        <v>141</v>
       </c>
       <c r="I6" s="7">
-        <v>157473</v>
+        <v>87859</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>512</v>
+        <v>263</v>
       </c>
       <c r="N6" s="7">
-        <v>326687</v>
+        <v>168074</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>328</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>225454</v>
+        <v>11627</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="H7" s="7">
-        <v>325</v>
+        <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>210738</v>
+        <v>11888</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
-        <v>653</v>
+        <v>33</v>
       </c>
       <c r="N7" s="7">
-        <v>436193</v>
+        <v>23515</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>35</v>
+        <v>364</v>
       </c>
       <c r="D8" s="7">
-        <v>24598</v>
+        <v>246434</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
-        <v>34</v>
+        <v>314</v>
       </c>
       <c r="I8" s="7">
-        <v>23901</v>
+        <v>197935</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
-        <v>69</v>
+        <v>678</v>
       </c>
       <c r="N8" s="7">
-        <v>48498</v>
+        <v>444369</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,153 +3626,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="I9" s="7">
-        <v>234639</v>
+        <v>209823</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="N9" s="7">
-        <v>484691</v>
+        <v>467884</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>291</v>
+        <v>51</v>
       </c>
       <c r="D10" s="7">
-        <v>215971</v>
+        <v>36439</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
-        <v>280</v>
+        <v>47</v>
       </c>
       <c r="I10" s="7">
-        <v>201947</v>
+        <v>33428</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
-        <v>571</v>
+        <v>98</v>
       </c>
       <c r="N10" s="7">
-        <v>417919</v>
+        <v>69867</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="D11" s="7">
-        <v>65658</v>
+        <v>152133</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
+        <v>225</v>
+      </c>
+      <c r="I11" s="7">
+        <v>155471</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M11" s="7">
+        <v>437</v>
+      </c>
+      <c r="N11" s="7">
+        <v>307604</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="I11" s="7">
-        <v>64495</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M11" s="7">
-        <v>183</v>
-      </c>
-      <c r="N11" s="7">
-        <v>130152</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,153 +3781,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>373</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>266442</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>754</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>548071</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>874</v>
+        <v>59</v>
       </c>
       <c r="D13" s="7">
-        <v>609994</v>
+        <v>42836</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
-        <v>860</v>
+        <v>64</v>
       </c>
       <c r="I13" s="7">
-        <v>569599</v>
+        <v>43639</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
-        <v>1734</v>
+        <v>123</v>
       </c>
       <c r="N13" s="7">
-        <v>1179593</v>
+        <v>86474</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="D14" s="7">
-        <v>90901</v>
+        <v>131212</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="I14" s="7">
-        <v>88955</v>
+        <v>128334</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
-        <v>254</v>
+        <v>356</v>
       </c>
       <c r="N14" s="7">
-        <v>179856</v>
+        <v>259546</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,55 +3936,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>244</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171973</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>479</v>
+      </c>
+      <c r="N15" s="7">
+        <v>346020</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>126</v>
+      </c>
+      <c r="D16" s="7">
+        <v>90901</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H16" s="7">
+        <v>128</v>
+      </c>
+      <c r="I16" s="7">
+        <v>88955</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M16" s="7">
+        <v>254</v>
+      </c>
+      <c r="N16" s="7">
+        <v>179856</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>874</v>
+      </c>
+      <c r="D17" s="7">
+        <v>609994</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H17" s="7">
+        <v>860</v>
+      </c>
+      <c r="I17" s="7">
+        <v>569599</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1734</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1179593</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1000</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>700895</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>988</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>658554</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1988</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1359449</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3526,8 +4158,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2777E0C-979B-4C6B-8F71-85991A2A613C}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7DC155-C3F0-4D2D-849A-285A480F6708}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3543,7 +4175,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3644,100 +4276,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>193</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>102094</v>
+        <v>922</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>221</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="H4" s="7">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>93370</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="M4" s="7">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>195465</v>
+        <v>922</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D5" s="7">
-        <v>2972</v>
+        <v>44709</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="I5" s="7">
-        <v>1134</v>
+        <v>48229</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>231</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>232</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="N5" s="7">
-        <v>4106</v>
+        <v>92938</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,153 +4378,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="D6" s="7">
-        <v>105066</v>
+        <v>45631</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="I6" s="7">
-        <v>94504</v>
+        <v>48229</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>376</v>
+        <v>176</v>
       </c>
       <c r="N6" s="7">
-        <v>199571</v>
+        <v>93860</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>187254</v>
+        <v>11358</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="H7" s="7">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>173619</v>
+        <v>10696</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="M7" s="7">
-        <v>496</v>
+        <v>33</v>
       </c>
       <c r="N7" s="7">
-        <v>360872</v>
+        <v>22054</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>22</v>
+        <v>257</v>
       </c>
       <c r="D8" s="7">
-        <v>16832</v>
+        <v>162971</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="H8" s="7">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="I8" s="7">
-        <v>24648</v>
+        <v>147909</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="M8" s="7">
-        <v>54</v>
+        <v>498</v>
       </c>
       <c r="N8" s="7">
-        <v>41481</v>
+        <v>310880</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,153 +4533,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D9" s="7">
-        <v>204086</v>
+        <v>174329</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158605</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="N9" s="7">
-        <v>402353</v>
+        <v>332934</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>397</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>327915</v>
+        <v>22782</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
-        <v>377</v>
+        <v>37</v>
       </c>
       <c r="I10" s="7">
-        <v>282767</v>
+        <v>29336</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>74</v>
+        <v>280</v>
       </c>
       <c r="M10" s="7">
-        <v>774</v>
+        <v>65</v>
       </c>
       <c r="N10" s="7">
-        <v>610682</v>
+        <v>52119</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="D11" s="7">
-        <v>74795</v>
+        <v>179696</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="H11" s="7">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="I11" s="7">
-        <v>68041</v>
+        <v>146777</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>82</v>
+        <v>288</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="M11" s="7">
-        <v>167</v>
+        <v>411</v>
       </c>
       <c r="N11" s="7">
-        <v>142837</v>
+        <v>326472</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,153 +4688,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>402710</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>462</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>350808</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>941</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>753519</v>
+        <v>378591</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>837</v>
+        <v>63</v>
       </c>
       <c r="D13" s="7">
-        <v>617263</v>
+        <v>59538</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="H13" s="7">
-        <v>801</v>
+        <v>67</v>
       </c>
       <c r="I13" s="7">
-        <v>549756</v>
+        <v>53791</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="M13" s="7">
-        <v>1638</v>
+        <v>130</v>
       </c>
       <c r="N13" s="7">
-        <v>1167018</v>
+        <v>113329</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>109</v>
+        <v>279</v>
       </c>
       <c r="D14" s="7">
-        <v>94600</v>
+        <v>229886</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="H14" s="7">
-        <v>120</v>
+        <v>275</v>
       </c>
       <c r="I14" s="7">
-        <v>93824</v>
+        <v>206842</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="M14" s="7">
-        <v>229</v>
+        <v>554</v>
       </c>
       <c r="N14" s="7">
-        <v>188424</v>
+        <v>436728</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,55 +4843,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>342</v>
+      </c>
+      <c r="D15" s="7">
+        <v>289424</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <v>342</v>
+      </c>
+      <c r="I15" s="7">
+        <v>260633</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="7">
+        <v>684</v>
+      </c>
+      <c r="N15" s="7">
+        <v>550057</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>109</v>
+      </c>
+      <c r="D16" s="7">
+        <v>94600</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H16" s="7">
+        <v>120</v>
+      </c>
+      <c r="I16" s="7">
+        <v>93824</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="M16" s="7">
+        <v>229</v>
+      </c>
+      <c r="N16" s="7">
+        <v>188424</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>837</v>
+      </c>
+      <c r="D17" s="7">
+        <v>617263</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H17" s="7">
+        <v>801</v>
+      </c>
+      <c r="I17" s="7">
+        <v>549756</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1638</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1167018</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>946</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>711863</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>921</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>643580</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7">
         <v>1867</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1355442</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP2003-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2003-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C46345B2-F72C-49B6-9E0E-99E2F1657489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAFAB4A1-EDE7-4AC2-AF29-41AFADAD3875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2258F08D-98D4-46B8-8707-A9FD144DAA8D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66618986-7ED4-4C70-A227-2985A83969B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="335">
   <si>
     <t>Menores según si tienen dientes o muelas empastados en 2007 (Tasa respuesta: 94,72%)</t>
   </si>
@@ -113,55 +113,55 @@
     <t>4,24%</t>
   </si>
   <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
     <t>7,19%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
   </si>
   <si>
     <t>95,76%</t>
   </si>
   <si>
-    <t>93,4%</t>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
   </si>
   <si>
     <t>97,44%</t>
   </si>
   <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -170,55 +170,55 @@
     <t>21,7%</t>
   </si>
   <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
   </si>
   <si>
     <t>27,55%</t>
   </si>
   <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
   </si>
   <si>
     <t>24,48%</t>
   </si>
   <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
   </si>
   <si>
     <t>78,3%</t>
   </si>
   <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
   </si>
   <si>
     <t>72,45%</t>
   </si>
   <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
   </si>
   <si>
     <t>75,52%</t>
   </si>
   <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -227,109 +227,109 @@
     <t>27,31%</t>
   </si>
   <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
   </si>
   <si>
     <t>34,46%</t>
   </si>
   <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
   </si>
   <si>
     <t>30,78%</t>
   </si>
   <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
   </si>
   <si>
     <t>72,69%</t>
   </si>
   <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
   </si>
   <si>
     <t>65,54%</t>
   </si>
   <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
   </si>
   <si>
     <t>69,22%</t>
   </si>
   <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
   </si>
   <si>
     <t>17,57%</t>
   </si>
   <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
   </si>
   <si>
     <t>15,85%</t>
   </si>
   <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
   </si>
   <si>
     <t>85,76%</t>
   </si>
   <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
   </si>
   <si>
     <t>82,43%</t>
   </si>
   <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
   </si>
   <si>
     <t>84,15%</t>
   </si>
   <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -359,16 +359,16 @@
     <t>5,52%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
   </si>
   <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>2,62%</t>
+    <t>2,68%</t>
   </si>
   <si>
     <t>7,31%</t>
@@ -377,19 +377,19 @@
     <t>5,08%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>94,48%</t>
   </si>
   <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
   </si>
   <si>
     <t>95,42%</t>
@@ -398,34 +398,34 @@
     <t>92,69%</t>
   </si>
   <si>
-    <t>97,38%</t>
+    <t>97,32%</t>
   </si>
   <si>
     <t>94,92%</t>
   </si>
   <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
   <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
   </si>
   <si>
     <t>27,87%</t>
   </si>
   <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
   </si>
   <si>
     <t>23,93%</t>
@@ -434,31 +434,31 @@
     <t>20,15%</t>
   </si>
   <si>
-    <t>28,02%</t>
+    <t>28,12%</t>
   </si>
   <si>
     <t>79,98%</t>
   </si>
   <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
   </si>
   <si>
     <t>72,13%</t>
   </si>
   <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
   </si>
   <si>
     <t>76,07%</t>
   </si>
   <si>
-    <t>71,98%</t>
+    <t>71,88%</t>
   </si>
   <si>
     <t>79,85%</t>
@@ -467,316 +467,340 @@
     <t>25,67%</t>
   </si>
   <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
   </si>
   <si>
     <t>33,18%</t>
   </si>
   <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
   </si>
   <si>
     <t>29,33%</t>
   </si>
   <si>
-    <t>33,54%</t>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
   </si>
   <si>
     <t>74,33%</t>
   </si>
   <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
   </si>
   <si>
     <t>66,82%</t>
   </si>
   <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
   </si>
   <si>
     <t>70,67%</t>
   </si>
   <si>
-    <t>66,46%</t>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
   </si>
   <si>
     <t>13,19%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
   </si>
   <si>
     <t>16,78%</t>
   </si>
   <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>Menores según si tienen dientes o muelas empastados en 2016 (Tasa respuesta: 93,51%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
   </si>
   <si>
     <t>86,77%</t>
   </si>
   <si>
-    <t>Menores según si tienen dientes o muelas empastados en 2015 (Tasa respuesta: 93,51%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
   </si>
   <si>
     <t>Menores según si tienen dientes o muelas empastados en 2023 (Tasa respuesta: 97,24%)</t>
@@ -785,7 +809,7 @@
     <t>2,02%</t>
   </si>
   <si>
-    <t>9,89%</t>
+    <t>10,45%</t>
   </si>
   <si>
     <t>2,13%</t>
@@ -794,13 +818,13 @@
     <t>0,98%</t>
   </si>
   <si>
-    <t>4,54%</t>
+    <t>4,89%</t>
   </si>
   <si>
     <t>97,98%</t>
   </si>
   <si>
-    <t>90,11%</t>
+    <t>89,55%</t>
   </si>
   <si>
     <t>97,87%</t>
@@ -809,223 +833,217 @@
     <t>99,02%</t>
   </si>
   <si>
-    <t>95,46%</t>
+    <t>95,11%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
   </si>
   <si>
     <t>93,48%</t>
   </si>
   <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
   </si>
   <si>
     <t>93,26%</t>
   </si>
   <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
   </si>
   <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>11,25%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
   </si>
   <si>
     <t>16,66%</t>
   </si>
   <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
   </si>
   <si>
     <t>13,77%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
   </si>
   <si>
     <t>88,75%</t>
   </si>
   <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
   </si>
   <si>
     <t>83,34%</t>
   </si>
   <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
   </si>
   <si>
     <t>86,23%</t>
   </si>
   <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
   </si>
   <si>
     <t>20,57%</t>
   </si>
   <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
   </si>
   <si>
     <t>20,64%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
   </si>
   <si>
     <t>20,6%</t>
   </si>
   <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
   </si>
   <si>
     <t>79,43%</t>
   </si>
   <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
   </si>
   <si>
     <t>79,36%</t>
   </si>
   <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
   </si>
   <si>
     <t>79,4%</t>
   </si>
   <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
+    <t>10,98%</t>
   </si>
   <si>
     <t>14,58%</t>
   </si>
   <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
   </si>
   <si>
     <t>13,9%</t>
   </si>
   <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
   </si>
   <si>
     <t>86,71%</t>
   </si>
   <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
+    <t>89,02%</t>
   </si>
   <si>
     <t>85,42%</t>
   </si>
   <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
   </si>
   <si>
     <t>86,1%</t>
   </si>
   <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01DB5C2-12B3-442E-BB3C-88C08F53DC4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C67581-E620-43AB-B9F0-208B25A443D8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2344,7 +2362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE91A589-F3BA-44C9-8A7D-501284DCB692}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CCF603-A12F-423C-973A-18C603AA1C2A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2966,10 +2984,10 @@
         <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,13 +3002,13 @@
         <v>133752</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>162</v>
@@ -2999,13 +3017,13 @@
         <v>114086</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>358</v>
@@ -3014,13 +3032,13 @@
         <v>247837</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,13 +3106,13 @@
         <v>92797</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H16" s="7">
         <v>158</v>
@@ -3103,13 +3121,13 @@
         <v>111231</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M16" s="7">
         <v>294</v>
@@ -3118,13 +3136,13 @@
         <v>204028</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,13 +3157,13 @@
         <v>610643</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H17" s="7">
         <v>796</v>
@@ -3154,13 +3172,13 @@
         <v>551660</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M17" s="7">
         <v>1664</v>
@@ -3169,13 +3187,13 @@
         <v>1162303</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,7 +3269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AFAF40-EF0A-446E-9D83-6AB4ACC36667}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D5C059-3B8C-47F2-917E-A50758EE3047}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3268,7 +3286,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3381,7 +3399,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3396,7 +3414,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3411,7 +3429,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,7 +3447,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3444,7 +3462,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3459,7 +3477,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3530,13 +3548,13 @@
         <v>11627</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -3545,13 +3563,13 @@
         <v>11888</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -3560,13 +3578,13 @@
         <v>23515</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3599,13 @@
         <v>246434</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H8" s="7">
         <v>314</v>
@@ -3596,13 +3614,13 @@
         <v>197935</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>678</v>
@@ -3611,13 +3629,13 @@
         <v>444369</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,13 +3703,13 @@
         <v>36439</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -3700,13 +3718,13 @@
         <v>33428</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>98</v>
@@ -3715,13 +3733,13 @@
         <v>69867</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3754,13 @@
         <v>152133</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>225</v>
@@ -3751,13 +3769,13 @@
         <v>155471</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>437</v>
@@ -3766,13 +3784,13 @@
         <v>307604</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>93</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,13 +3858,13 @@
         <v>42836</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
@@ -3855,13 +3873,13 @@
         <v>43639</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
         <v>123</v>
@@ -3870,13 +3888,13 @@
         <v>86474</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3909,13 @@
         <v>131212</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
         <v>180</v>
@@ -3906,13 +3924,13 @@
         <v>128334</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
         <v>356</v>
@@ -3921,13 +3939,13 @@
         <v>259546</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,13 +4013,13 @@
         <v>90901</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="H16" s="7">
         <v>128</v>
@@ -4010,13 +4028,13 @@
         <v>88955</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>235</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>254</v>
@@ -4025,13 +4043,13 @@
         <v>179856</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4064,13 @@
         <v>609994</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>860</v>
@@ -4061,13 +4079,13 @@
         <v>569599</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>1734</v>
@@ -4076,13 +4094,13 @@
         <v>1179593</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>174</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,7 +4176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7DC155-C3F0-4D2D-849A-285A480F6708}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263C9472-100C-4527-BB29-874FBB4A05EE}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4175,7 +4193,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4282,13 +4300,13 @@
         <v>922</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4303,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -4312,13 +4330,13 @@
         <v>922</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,10 +4351,10 @@
         <v>44709</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
@@ -4351,7 +4369,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4363,10 +4381,10 @@
         <v>92938</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -4437,13 +4455,13 @@
         <v>11358</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -4452,13 +4470,13 @@
         <v>10696</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -4467,13 +4485,13 @@
         <v>22054</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,13 +4506,13 @@
         <v>162971</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="H8" s="7">
         <v>241</v>
@@ -4503,13 +4521,13 @@
         <v>147909</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="M8" s="7">
         <v>498</v>
@@ -4518,13 +4536,13 @@
         <v>310880</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,13 +4610,13 @@
         <v>22782</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="H10" s="7">
         <v>37</v>
@@ -4607,13 +4625,13 @@
         <v>29336</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -4622,13 +4640,13 @@
         <v>52119</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,13 +4661,13 @@
         <v>179696</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="H11" s="7">
         <v>196</v>
@@ -4658,13 +4676,13 @@
         <v>146777</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="M11" s="7">
         <v>411</v>
@@ -4673,13 +4691,13 @@
         <v>326472</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,13 +4765,13 @@
         <v>59538</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -4762,13 +4780,13 @@
         <v>53791</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="M13" s="7">
         <v>130</v>
@@ -4777,13 +4795,13 @@
         <v>113329</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,13 +4816,13 @@
         <v>229886</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="H14" s="7">
         <v>275</v>
@@ -4813,13 +4831,13 @@
         <v>206842</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="M14" s="7">
         <v>554</v>
@@ -4828,13 +4846,13 @@
         <v>436728</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4902,13 +4920,13 @@
         <v>94600</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>313</v>
+        <v>162</v>
       </c>
       <c r="H16" s="7">
         <v>120</v>
@@ -4917,13 +4935,13 @@
         <v>93824</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="M16" s="7">
         <v>229</v>
@@ -4932,13 +4950,13 @@
         <v>188424</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,13 +4971,13 @@
         <v>617263</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>321</v>
+        <v>171</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H17" s="7">
         <v>801</v>
@@ -4968,13 +4986,13 @@
         <v>549756</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M17" s="7">
         <v>1638</v>
@@ -4983,13 +5001,13 @@
         <v>1167018</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP2003-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2003-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAFAB4A1-EDE7-4AC2-AF29-41AFADAD3875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6286BF23-8928-4D9E-A802-0393D07BD043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66618986-7ED4-4C70-A227-2985A83969B9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{365BBFB0-6A12-435B-9D5F-C9EA21DF9623}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="337">
   <si>
     <t>Menores según si tienen dientes o muelas empastados en 2007 (Tasa respuesta: 94,72%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,12 +80,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,76%</t>
+  </si>
+  <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
     <t>0,81%</t>
   </si>
   <si>
@@ -95,241 +95,235 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>98,51%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
     <t>99,19%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
     <t>4,24%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
   </si>
   <si>
     <t>95,76%</t>
   </si>
   <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
     <t>21,7%</t>
   </si>
   <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
   </si>
   <si>
     <t>24,48%</t>
   </si>
   <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
   </si>
   <si>
     <t>78,3%</t>
   </si>
   <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
   </si>
   <si>
     <t>75,52%</t>
   </si>
   <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
   </si>
   <si>
     <t>30,78%</t>
   </si>
   <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
   </si>
   <si>
     <t>72,69%</t>
   </si>
   <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
   </si>
   <si>
     <t>69,22%</t>
   </si>
   <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
+    <t>12,22%</t>
   </si>
   <si>
     <t>15,85%</t>
   </si>
   <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
   </si>
   <si>
     <t>85,76%</t>
   </si>
   <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
+    <t>87,78%</t>
   </si>
   <si>
     <t>84,15%</t>
   </si>
   <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -338,286 +332,295 @@
     <t>Menores según si tienen dientes o muelas empastados en 2012 (Tasa respuesta: 93,28%)</t>
   </si>
   <si>
+    <t>1,28%</t>
+  </si>
+  <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
     <t>0,67%</t>
   </si>
   <si>
+    <t>98,72%</t>
+  </si>
+  <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>98,72%</t>
-  </si>
-  <si>
     <t>99,33%</t>
   </si>
   <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
   </si>
   <si>
     <t>94,48%</t>
   </si>
   <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
   <si>
     <t>94,92%</t>
   </si>
   <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
   </si>
   <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
   </si>
   <si>
     <t>23,93%</t>
   </si>
   <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
   </si>
   <si>
     <t>79,98%</t>
   </si>
   <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
   </si>
   <si>
     <t>76,07%</t>
   </si>
   <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
   </si>
   <si>
     <t>25,67%</t>
   </si>
   <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
   </si>
   <si>
     <t>29,33%</t>
   </si>
   <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
   </si>
   <si>
     <t>74,33%</t>
   </si>
   <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
   </si>
   <si>
     <t>70,67%</t>
   </si>
   <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
   </si>
   <si>
     <t>13,19%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
   </si>
   <si>
     <t>86,81%</t>
   </si>
   <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
   </si>
   <si>
     <t>85,07%</t>
   </si>
   <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
   </si>
   <si>
     <t>Menores según si tienen dientes o muelas empastados en 2016 (Tasa respuesta: 93,51%)</t>
   </si>
   <si>
+    <t>1,35%</t>
+  </si>
+  <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
     <t>0,73%</t>
   </si>
   <si>
+    <t>98,65%</t>
+  </si>
+  <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>98,65%</t>
-  </si>
-  <si>
     <t>99,27%</t>
   </si>
   <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
     <t>4,51%</t>
   </si>
   <si>
-    <t>2,59%</t>
+    <t>2,49%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
   </si>
   <si>
     <t>95,49%</t>
@@ -626,424 +629,427 @@
     <t>92,83%</t>
   </si>
   <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
+    <t>97,51%</t>
   </si>
   <si>
     <t>94,97%</t>
   </si>
   <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
   </si>
   <si>
     <t>19,32%</t>
   </si>
   <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
   </si>
   <si>
     <t>18,51%</t>
   </si>
   <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
   </si>
   <si>
     <t>80,68%</t>
   </si>
   <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
   </si>
   <si>
     <t>81,49%</t>
   </si>
   <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
   </si>
   <si>
     <t>24,61%</t>
   </si>
   <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
   </si>
   <si>
     <t>24,99%</t>
   </si>
   <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
   </si>
   <si>
     <t>75,39%</t>
   </si>
   <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
   </si>
   <si>
     <t>75,01%</t>
   </si>
   <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
   </si>
   <si>
     <t>12,97%</t>
   </si>
   <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
   </si>
   <si>
     <t>87,03%</t>
   </si>
   <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
   </si>
   <si>
     <t>86,77%</t>
   </si>
   <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
   </si>
   <si>
     <t>Menores según si tienen dientes o muelas empastados en 2023 (Tasa respuesta: 97,24%)</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
   </si>
   <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C67581-E620-43AB-B9F0-208B25A443D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE313FF1-4B6D-4CB2-9E9F-6DB8658D22F3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1624,10 +1630,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D5" s="7">
-        <v>85108</v>
+        <v>70767</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1639,10 +1645,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="I5" s="7">
-        <v>70767</v>
+        <v>85108</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1675,25 +1681,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>108</v>
+      </c>
+      <c r="D6" s="7">
+        <v>70767</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>128</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>85108</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>108</v>
-      </c>
-      <c r="I6" s="7">
-        <v>70767</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1728,10 +1734,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>10735</v>
+        <v>11288</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1743,10 +1749,10 @@
         <v>25</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>11288</v>
+        <v>10735</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>26</v>
@@ -1779,10 +1785,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D8" s="7">
-        <v>242296</v>
+        <v>241341</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>32</v>
@@ -1794,10 +1800,10 @@
         <v>34</v>
       </c>
       <c r="H8" s="7">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="I8" s="7">
-        <v>241341</v>
+        <v>242296</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>35</v>
@@ -1830,25 +1836,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>378</v>
+      </c>
+      <c r="D9" s="7">
+        <v>252629</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>381</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253031</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>378</v>
-      </c>
-      <c r="I9" s="7">
-        <v>252629</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1883,10 +1889,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>30533</v>
+        <v>35135</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>42</v>
@@ -1898,10 +1904,10 @@
         <v>44</v>
       </c>
       <c r="H10" s="7">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I10" s="7">
-        <v>35135</v>
+        <v>30533</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>45</v>
@@ -1934,10 +1940,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="D11" s="7">
-        <v>110169</v>
+        <v>92413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>51</v>
@@ -1949,10 +1955,10 @@
         <v>53</v>
       </c>
       <c r="H11" s="7">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="I11" s="7">
-        <v>92413</v>
+        <v>110169</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>54</v>
@@ -1985,25 +1991,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>211</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>140702</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2038,10 +2044,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D13" s="7">
-        <v>56267</v>
+        <v>66882</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>61</v>
@@ -2053,10 +2059,10 @@
         <v>63</v>
       </c>
       <c r="H13" s="7">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="I13" s="7">
-        <v>66882</v>
+        <v>56267</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>64</v>
@@ -2089,10 +2095,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="D14" s="7">
-        <v>149782</v>
+        <v>127215</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>70</v>
@@ -2104,10 +2110,10 @@
         <v>72</v>
       </c>
       <c r="H14" s="7">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="I14" s="7">
-        <v>127215</v>
+        <v>149782</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>73</v>
@@ -2140,25 +2146,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2193,10 +2199,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="D16" s="7">
-        <v>97535</v>
+        <v>113305</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>79</v>
@@ -2208,10 +2214,10 @@
         <v>81</v>
       </c>
       <c r="H16" s="7">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="I16" s="7">
-        <v>113305</v>
+        <v>97535</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>82</v>
@@ -2220,7 +2226,7 @@
         <v>83</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="M16" s="7">
         <v>314</v>
@@ -2229,13 +2235,13 @@
         <v>210840</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,34 +2250,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>794</v>
+      </c>
+      <c r="D17" s="7">
+        <v>531735</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="7">
         <v>885</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>587355</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="7">
-        <v>794</v>
-      </c>
-      <c r="I17" s="7">
-        <v>531735</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>1679</v>
@@ -2280,13 +2286,13 @@
         <v>1119090</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,25 +2301,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>963</v>
+      </c>
+      <c r="D18" s="7">
+        <v>645040</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1030</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>684890</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>963</v>
-      </c>
-      <c r="I18" s="7">
-        <v>645040</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2342,7 +2348,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2362,7 +2368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CCF603-A12F-423C-973A-18C603AA1C2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679578-762D-4F95-ADFC-81A26B7B4C23}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2379,7 +2385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2492,7 +2498,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2507,7 +2513,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2522,7 +2528,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,31 +2537,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D5" s="7">
-        <v>95923</v>
+        <v>98870</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="I5" s="7">
-        <v>98870</v>
+        <v>95923</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2570,7 +2576,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2582,25 +2588,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>149</v>
+      </c>
+      <c r="D6" s="7">
+        <v>98870</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>137</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>95923</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>149</v>
-      </c>
-      <c r="I6" s="7">
-        <v>98870</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2635,34 +2641,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7">
+        <v>10823</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="7">
         <v>20</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>14840</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="7">
-        <v>15</v>
-      </c>
-      <c r="I7" s="7">
-        <v>10823</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -2671,13 +2677,13 @@
         <v>25663</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,34 +2692,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>325</v>
+      </c>
+      <c r="D8" s="7">
+        <v>225427</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="7">
         <v>354</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>254151</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="7">
-        <v>325</v>
-      </c>
-      <c r="I8" s="7">
-        <v>225427</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>679</v>
@@ -2722,13 +2728,13 @@
         <v>479578</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,25 +2743,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>340</v>
+      </c>
+      <c r="D9" s="7">
+        <v>236250</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>374</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>268991</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>340</v>
-      </c>
-      <c r="I9" s="7">
-        <v>236250</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2790,34 +2796,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>63</v>
+      </c>
+      <c r="D10" s="7">
+        <v>43766</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="7">
         <v>47</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>31754</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H10" s="7">
-        <v>63</v>
-      </c>
-      <c r="I10" s="7">
-        <v>43766</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>110</v>
@@ -2826,13 +2832,13 @@
         <v>75519</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,34 +2847,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>160</v>
+      </c>
+      <c r="D11" s="7">
+        <v>113277</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="7">
         <v>181</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>126817</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H11" s="7">
-        <v>160</v>
-      </c>
-      <c r="I11" s="7">
-        <v>113277</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>341</v>
@@ -2877,13 +2883,13 @@
         <v>240095</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2892,25 +2898,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>223</v>
+      </c>
+      <c r="D12" s="7">
+        <v>157043</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>223</v>
-      </c>
-      <c r="I12" s="7">
-        <v>157043</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2945,34 +2951,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>80</v>
+      </c>
+      <c r="D13" s="7">
+        <v>56642</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="7">
         <v>69</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>46203</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="7">
-        <v>80</v>
-      </c>
-      <c r="I13" s="7">
-        <v>56642</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -2981,13 +2987,13 @@
         <v>102846</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,34 +3002,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>162</v>
+      </c>
+      <c r="D14" s="7">
+        <v>114086</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" s="7">
         <v>196</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>133752</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H14" s="7">
-        <v>162</v>
-      </c>
-      <c r="I14" s="7">
-        <v>114086</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>358</v>
@@ -3032,13 +3038,13 @@
         <v>247837</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,25 +3053,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>242</v>
+      </c>
+      <c r="D15" s="7">
+        <v>170728</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>265</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>179955</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>242</v>
-      </c>
-      <c r="I15" s="7">
-        <v>170728</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3100,34 +3106,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>158</v>
+      </c>
+      <c r="D16" s="7">
+        <v>111231</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="7">
         <v>136</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>92797</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H16" s="7">
-        <v>158</v>
-      </c>
-      <c r="I16" s="7">
-        <v>111231</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M16" s="7">
         <v>294</v>
@@ -3136,13 +3142,13 @@
         <v>204028</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,34 +3157,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>796</v>
+      </c>
+      <c r="D17" s="7">
+        <v>551660</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="7">
         <v>868</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>610643</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H17" s="7">
-        <v>796</v>
-      </c>
-      <c r="I17" s="7">
-        <v>551660</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M17" s="7">
         <v>1664</v>
@@ -3187,13 +3193,13 @@
         <v>1162303</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3202,25 +3208,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>954</v>
+      </c>
+      <c r="D18" s="7">
+        <v>662891</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1004</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>703440</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>954</v>
-      </c>
-      <c r="I18" s="7">
-        <v>662891</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3249,7 +3255,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3269,7 +3275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D5C059-3B8C-47F2-917E-A50758EE3047}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1AC083-A8CE-426C-A843-8B9AEE5EB807}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3286,7 +3292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3399,7 +3405,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3414,7 +3420,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3429,7 +3435,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,31 +3444,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D5" s="7">
-        <v>80214</v>
+        <v>87859</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="I5" s="7">
-        <v>87859</v>
+        <v>80214</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3477,7 +3483,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3489,25 +3495,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>141</v>
+      </c>
+      <c r="D6" s="7">
+        <v>87859</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>122</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>80214</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>141</v>
-      </c>
-      <c r="I6" s="7">
-        <v>87859</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3542,34 +3548,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7">
+        <v>11888</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="7">
         <v>16</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>11627</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="H7" s="7">
-        <v>17</v>
-      </c>
-      <c r="I7" s="7">
-        <v>11888</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -3578,13 +3584,13 @@
         <v>23515</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,34 +3599,34 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>314</v>
+      </c>
+      <c r="D8" s="7">
+        <v>197935</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H8" s="7">
         <v>364</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>246434</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="H8" s="7">
-        <v>314</v>
-      </c>
-      <c r="I8" s="7">
-        <v>197935</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>678</v>
@@ -3629,13 +3635,13 @@
         <v>444369</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,25 +3650,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>331</v>
+      </c>
+      <c r="D9" s="7">
+        <v>209823</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>331</v>
-      </c>
-      <c r="I9" s="7">
-        <v>209823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3697,34 +3703,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>47</v>
+      </c>
+      <c r="D10" s="7">
+        <v>33428</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H10" s="7">
         <v>51</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>36439</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H10" s="7">
-        <v>47</v>
-      </c>
-      <c r="I10" s="7">
-        <v>33428</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M10" s="7">
         <v>98</v>
@@ -3733,13 +3739,13 @@
         <v>69867</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,34 +3754,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>225</v>
+      </c>
+      <c r="D11" s="7">
+        <v>155471</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="7">
         <v>212</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>152133</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="H11" s="7">
-        <v>225</v>
-      </c>
-      <c r="I11" s="7">
-        <v>155471</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>437</v>
@@ -3784,13 +3790,13 @@
         <v>307604</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,25 +3805,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3852,34 +3858,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>64</v>
+      </c>
+      <c r="D13" s="7">
+        <v>43639</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H13" s="7">
         <v>59</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>42836</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H13" s="7">
-        <v>64</v>
-      </c>
-      <c r="I13" s="7">
-        <v>43639</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M13" s="7">
         <v>123</v>
@@ -3888,13 +3894,13 @@
         <v>86474</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,34 +3909,34 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
+        <v>180</v>
+      </c>
+      <c r="D14" s="7">
+        <v>128334</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H14" s="7">
         <v>176</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>131212</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="H14" s="7">
-        <v>180</v>
-      </c>
-      <c r="I14" s="7">
-        <v>128334</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M14" s="7">
         <v>356</v>
@@ -3939,13 +3945,13 @@
         <v>259546</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,25 +3960,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>244</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171973</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>244</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171973</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4007,34 +4013,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>128</v>
+      </c>
+      <c r="D16" s="7">
+        <v>88955</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H16" s="7">
         <v>126</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>90901</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H16" s="7">
-        <v>128</v>
-      </c>
-      <c r="I16" s="7">
-        <v>88955</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>254</v>
@@ -4043,13 +4049,13 @@
         <v>179856</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,31 +4064,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>860</v>
+      </c>
+      <c r="D17" s="7">
+        <v>569600</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H17" s="7">
         <v>874</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>609994</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H17" s="7">
-        <v>860</v>
-      </c>
-      <c r="I17" s="7">
-        <v>569599</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>250</v>
@@ -4109,25 +4115,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>988</v>
+      </c>
+      <c r="D18" s="7">
+        <v>658555</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>1000</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>700895</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>988</v>
-      </c>
-      <c r="I18" s="7">
-        <v>658554</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4156,7 +4162,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4176,7 +4182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263C9472-100C-4527-BB29-874FBB4A05EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C014BB37-4B10-41D5-B784-C6889DEC5A2F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4294,31 +4300,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
-        <v>922</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="I4" s="7">
+        <v>1117</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>257</v>
@@ -4327,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>922</v>
+        <v>1117</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>258</v>
@@ -4345,40 +4351,40 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>89</v>
+      </c>
+      <c r="D5" s="7">
+        <v>48405</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
         <v>86</v>
       </c>
-      <c r="D5" s="7">
-        <v>44709</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>46812</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="7">
-        <v>89</v>
-      </c>
-      <c r="I5" s="7">
-        <v>48229</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>262</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M5" s="7">
         <v>175</v>
       </c>
       <c r="N5" s="7">
-        <v>92938</v>
+        <v>95217</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>263</v>
@@ -4396,25 +4402,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>48405</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>87</v>
       </c>
-      <c r="D6" s="7">
-        <v>45631</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>89</v>
-      </c>
       <c r="I6" s="7">
-        <v>48229</v>
+        <v>47929</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4429,7 +4435,7 @@
         <v>176</v>
       </c>
       <c r="N6" s="7">
-        <v>93860</v>
+        <v>96334</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4449,10 +4455,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>11358</v>
+        <v>10612</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>265</v>
@@ -4464,10 +4470,10 @@
         <v>267</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>10696</v>
+        <v>11983</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>268</v>
@@ -4482,7 +4488,7 @@
         <v>33</v>
       </c>
       <c r="N7" s="7">
-        <v>22054</v>
+        <v>22595</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>271</v>
@@ -4500,10 +4506,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="D8" s="7">
-        <v>162971</v>
+        <v>148524</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>274</v>
@@ -4515,10 +4521,10 @@
         <v>276</v>
       </c>
       <c r="H8" s="7">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="I8" s="7">
-        <v>147909</v>
+        <v>169580</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>277</v>
@@ -4533,7 +4539,7 @@
         <v>498</v>
       </c>
       <c r="N8" s="7">
-        <v>310880</v>
+        <v>318104</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>280</v>
@@ -4551,25 +4557,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>257</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159136</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>274</v>
       </c>
-      <c r="D9" s="7">
-        <v>174329</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>257</v>
-      </c>
       <c r="I9" s="7">
-        <v>158605</v>
+        <v>181563</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4584,7 +4590,7 @@
         <v>531</v>
       </c>
       <c r="N9" s="7">
-        <v>332934</v>
+        <v>340699</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4604,10 +4610,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D10" s="7">
-        <v>22782</v>
+        <v>30227</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>283</v>
@@ -4619,10 +4625,10 @@
         <v>285</v>
       </c>
       <c r="H10" s="7">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>29336</v>
+        <v>24905</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>286</v>
@@ -4637,7 +4643,7 @@
         <v>65</v>
       </c>
       <c r="N10" s="7">
-        <v>52119</v>
+        <v>55133</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>289</v>
@@ -4655,10 +4661,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="D11" s="7">
-        <v>179696</v>
+        <v>142845</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>292</v>
@@ -4670,10 +4676,10 @@
         <v>294</v>
       </c>
       <c r="H11" s="7">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="I11" s="7">
-        <v>146777</v>
+        <v>187585</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>295</v>
@@ -4688,7 +4694,7 @@
         <v>411</v>
       </c>
       <c r="N11" s="7">
-        <v>326472</v>
+        <v>330430</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>298</v>
@@ -4706,25 +4712,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4739,7 +4745,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4759,10 +4765,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D13" s="7">
-        <v>59538</v>
+        <v>72209</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>301</v>
@@ -4774,10 +4780,10 @@
         <v>303</v>
       </c>
       <c r="H13" s="7">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I13" s="7">
-        <v>53791</v>
+        <v>67359</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>304</v>
@@ -4792,7 +4798,7 @@
         <v>130</v>
       </c>
       <c r="N13" s="7">
-        <v>113329</v>
+        <v>139568</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>307</v>
@@ -4810,10 +4816,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D14" s="7">
-        <v>229886</v>
+        <v>203249</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>310</v>
@@ -4825,10 +4831,10 @@
         <v>312</v>
       </c>
       <c r="H14" s="7">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="I14" s="7">
-        <v>206842</v>
+        <v>238124</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>313</v>
@@ -4843,7 +4849,7 @@
         <v>554</v>
       </c>
       <c r="N14" s="7">
-        <v>436728</v>
+        <v>441372</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>316</v>
@@ -4864,7 +4870,7 @@
         <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4879,7 +4885,7 @@
         <v>342</v>
       </c>
       <c r="I15" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4894,7 +4900,7 @@
         <v>684</v>
       </c>
       <c r="N15" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4914,10 +4920,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D16" s="7">
-        <v>94600</v>
+        <v>113048</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>319</v>
@@ -4926,37 +4932,37 @@
         <v>320</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>162</v>
+        <v>321</v>
       </c>
       <c r="H16" s="7">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="I16" s="7">
-        <v>93824</v>
+        <v>105364</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M16" s="7">
         <v>229</v>
       </c>
       <c r="N16" s="7">
-        <v>188424</v>
+        <v>218412</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4965,49 +4971,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>801</v>
+      </c>
+      <c r="D17" s="7">
+        <v>543023</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H17" s="7">
         <v>837</v>
       </c>
-      <c r="D17" s="7">
-        <v>617263</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H17" s="7">
-        <v>801</v>
-      </c>
       <c r="I17" s="7">
-        <v>549756</v>
+        <v>642101</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M17" s="7">
         <v>1638</v>
       </c>
       <c r="N17" s="7">
-        <v>1167018</v>
+        <v>1185124</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,25 +5022,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>921</v>
+      </c>
+      <c r="D18" s="7">
+        <v>656071</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>946</v>
       </c>
-      <c r="D18" s="7">
-        <v>711863</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>921</v>
-      </c>
       <c r="I18" s="7">
-        <v>643580</v>
+        <v>747465</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -5049,7 +5055,7 @@
         <v>1867</v>
       </c>
       <c r="N18" s="7">
-        <v>1355442</v>
+        <v>1403536</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -5063,7 +5069,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
